--- a/data/outputs/analysis_summary.xlsx
+++ b/data/outputs/analysis_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,15 +451,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Processo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Link Documento</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Nível de Risco</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Qtd Flags</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Data Análise</t>
         </is>
@@ -468,30 +478,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27051838000160</t>
+          <t>55303013000121</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ERMAR ALIMENTOS LTDA</t>
+          <t>DOCE SENSACAO COMERCIO E PRODUCAO LTDA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>116.778.506,96</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+          <t>110.000,00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://acesso.processo.rio/sigaex/public/app/transparencia/processo?n=TUR-PRO-2025/00103</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-12-25T11:56:09.204965</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-12-28T09:47:46.021887</t>
         </is>
       </c>
     </row>

--- a/data/outputs/analysis_summary.xlsx
+++ b/data/outputs/analysis_summary.xlsx
@@ -478,23 +478,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>55303013000121</t>
+          <t>28029634000196</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DOCE SENSACAO COMERCIO E PRODUCAO LTDA</t>
+          <t>YORK SERVICOS LTDA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>110.000,00</t>
+          <t>18.889.571,41</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://acesso.processo.rio/sigaex/public/app/transparencia/processo?n=TUR-PRO-2025/00103</t>
+          <t>https://acesso.processo.rio/sigaex/public/app/transparencia/processo?n=CET-PRO-2024/03611</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-12-28T09:47:46.021887</t>
+          <t>2025-12-28T21:29:57.109607</t>
         </is>
       </c>
     </row>

--- a/data/outputs/analysis_summary.xlsx
+++ b/data/outputs/analysis_summary.xlsx
@@ -478,23 +478,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28029634000196</t>
+          <t>20222439000176</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>YORK SERVICOS LTDA</t>
+          <t>REOBOOT 101 SERVICOS LTDA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18.889.571,41</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>222.000,00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FIL-PRO-2025/00230</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://acesso.processo.rio/sigaex/public/app/transparencia/processo?n=CET-PRO-2024/03611</t>
+          <t>https://acesso.processo.rio/sigaex/public/app/transparencia/processo?n=FIL-PRO-2025/00230</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -507,7 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-12-28T21:29:57.109607</t>
+          <t>2025-12-29T12:30:21.803120</t>
         </is>
       </c>
     </row>

--- a/data/outputs/analysis_summary.xlsx
+++ b/data/outputs/analysis_summary.xlsx
@@ -478,27 +478,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20222439000176</t>
+          <t>08804604000100</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>REOBOOT 101 SERVICOS LTDA</t>
+          <t>AVOHAI EVENTOS LTDA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>222.000,00</t>
+          <t>169.000,00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FIL-PRO-2025/00230</t>
+          <t>SME-PRO-2025/27598</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://acesso.processo.rio/sigaex/public/app/transparencia/processo?n=FIL-PRO-2025/00230</t>
+          <t>https://acesso.processo.rio/sigaex/public/app/transparencia/processo?n=SME-PRO-2025/27598</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-12-29T12:30:21.803120</t>
+          <t>2025-12-29T14:38:47.201965</t>
         </is>
       </c>
     </row>

--- a/data/outputs/analysis_summary.xlsx
+++ b/data/outputs/analysis_summary.xlsx
@@ -478,27 +478,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08804604000100</t>
+          <t>43213049000135</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AVOHAI EVENTOS LTDA</t>
+          <t>RHAIANY SOARES SILVA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>169.000,00</t>
+          <t>14707320767</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SME-PRO-2025/27598</t>
+          <t>TUR-PRO-2025/01056</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://acesso.processo.rio/sigaex/public/app/transparencia/processo?n=SME-PRO-2025/27598</t>
+          <t>https://acesso.processo.rio/sigaex/public/app/transparencia/processo?n=TUR-PRO-2025/01056</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-12-29T14:38:47.201965</t>
+          <t>2025-12-29T16:57:53.530794</t>
         </is>
       </c>
     </row>
